--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_1.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_0_1.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2071030.783613163</v>
+        <v>-2073028.456626007</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>472421.4565209175</v>
+        <v>482086.0064175727</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>161.4229449247923</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>120.7353876032088</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>47.14609477445376</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -716,16 +716,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,31 +814,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>49.28375166179459</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>135.178705264917</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -899,16 +899,16 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>350.2714656189111</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -941,10 +941,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>83.06748266394143</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1057,25 +1057,25 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>36.4480657473565</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>155.3197306044668</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1133,16 +1133,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>206.2189711053219</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1181,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>365.6717988180667</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="W10" t="n">
-        <v>158.8279420935744</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174121</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1540,10 +1540,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,16 +1573,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>186.7567454116317</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -1591,10 +1591,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>125.7541714875846</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>88.37735646243628</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>104.3370797092944</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>120.8857944753181</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
@@ -2062,13 +2062,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>17.13387053928689</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2236,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T22" t="n">
-        <v>216.3688193949613</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2476,25 +2476,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E25" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S25" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539629</v>
       </c>
       <c r="T25" t="n">
-        <v>153.4156709287489</v>
+        <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689367</v>
+        <v>218.1054622689372</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329028</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2773,7 +2773,7 @@
         <v>184.0057531941873</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069505</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378952</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,16 +2995,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539631</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.1054622689365</v>
+        <v>218.105462268937</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3044,7 +3044,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
         <v>81.77913505274074</v>
@@ -3202,10 +3202,10 @@
         <v>98.36167833373695</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789506</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I34" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415187</v>
       </c>
       <c r="S34" t="n">
-        <v>129.7889198539629</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T34" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3275,7 +3275,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417112</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>411.9645167896915</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857168</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T37" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3673,13 +3673,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3910,13 +3910,13 @@
         <v>77.28915789329061</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463139</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689363</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941874</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373696</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H46" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463136</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S46" t="n">
-        <v>129.7889198539626</v>
+        <v>129.7889198539627</v>
       </c>
       <c r="T46" t="n">
         <v>153.4156709287486</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689363</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1430.355453824634</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="C2" t="n">
-        <v>1061.392936884222</v>
+        <v>1272.344242153658</v>
       </c>
       <c r="D2" t="n">
-        <v>898.3394571622099</v>
+        <v>914.0785435469074</v>
       </c>
       <c r="E2" t="n">
-        <v>512.5512045639657</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F2" t="n">
-        <v>101.5652997743582</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4328,7 +4328,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733127</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2169.72394915887</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1816.955293888756</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1816.955293888756</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1816.955293888756</v>
+        <v>1272.344242153658</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296.2710210862865</v>
+        <v>2476.356511874692</v>
       </c>
       <c r="C4" t="n">
-        <v>296.2710210862865</v>
+        <v>2307.420328946786</v>
       </c>
       <c r="D4" t="n">
-        <v>296.2710210862865</v>
+        <v>2307.420328946786</v>
       </c>
       <c r="E4" t="n">
-        <v>296.2710210862865</v>
+        <v>2159.507235364392</v>
       </c>
       <c r="F4" t="n">
-        <v>149.3810735883762</v>
+        <v>2159.507235364392</v>
       </c>
       <c r="G4" t="n">
-        <v>99.5995062532301</v>
+        <v>2159.507235364392</v>
       </c>
       <c r="H4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.5995062532301</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Y4" t="n">
-        <v>477.9194859165262</v>
+        <v>2476.356511874692</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1485.946714969783</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="C5" t="n">
-        <v>1485.946714969783</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="D5" t="n">
-        <v>1127.681016363033</v>
+        <v>1595.875667274027</v>
       </c>
       <c r="E5" t="n">
-        <v>741.8927637647885</v>
+        <v>1210.087414675782</v>
       </c>
       <c r="F5" t="n">
-        <v>734.947263015585</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G5" t="n">
         <v>381.1377017843616</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2613.242542872827</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2613.242542872827</v>
       </c>
       <c r="U5" t="n">
-        <v>2212.181128500977</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="V5" t="n">
-        <v>2212.181128500977</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="W5" t="n">
-        <v>1859.412473230863</v>
+        <v>2359.480757510918</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.946714969783</v>
+        <v>1986.014999249838</v>
       </c>
       <c r="Y5" t="n">
-        <v>1485.946714969783</v>
+        <v>1595.875667274027</v>
       </c>
     </row>
     <row r="6">
@@ -4620,40 +4620,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4683,10 +4683,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>286.5323736931987</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="C7" t="n">
-        <v>286.5323736931987</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="D7" t="n">
-        <v>136.4157342808629</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="E7" t="n">
-        <v>136.4157342808629</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="F7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="G7" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H7" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I7" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>513.8405610245969</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="T7" t="n">
-        <v>286.5323736931987</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="U7" t="n">
-        <v>286.5323736931987</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="V7" t="n">
-        <v>286.5323736931987</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="W7" t="n">
-        <v>286.5323736931987</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="X7" t="n">
-        <v>286.5323736931987</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="Y7" t="n">
-        <v>286.5323736931987</v>
+        <v>393.6767897220517</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1610.120910258947</v>
+        <v>1584.674208896763</v>
       </c>
       <c r="C8" t="n">
-        <v>1241.158393318536</v>
+        <v>1376.372217881286</v>
       </c>
       <c r="D8" t="n">
-        <v>882.8926947117852</v>
+        <v>1018.106519274536</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4805,10 +4805,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V8" t="n">
-        <v>2366.086203674652</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W8" t="n">
-        <v>2366.086203674652</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="X8" t="n">
-        <v>1996.720750323069</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="Y8" t="n">
-        <v>1996.720750323069</v>
+        <v>1971.274048960885</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4890,34 +4890,34 @@
         <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.8207968750362</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>500.8207968750362</v>
+        <v>571.3497027553424</v>
       </c>
       <c r="W10" t="n">
-        <v>340.388532134052</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>340.388532134052</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5030,28 +5030,28 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5060,31 +5060,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5106,37 +5106,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>425.6917496867439</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>655.654855555093</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>962.9749888350547</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.386567099205</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>879.2482765610114</v>
+        <v>861.4909633328887</v>
       </c>
       <c r="C13" t="n">
-        <v>710.3120936331045</v>
+        <v>692.5547804049818</v>
       </c>
       <c r="D13" t="n">
-        <v>560.1954542207687</v>
+        <v>542.438140992646</v>
       </c>
       <c r="E13" t="n">
-        <v>412.2823606383756</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F13" t="n">
-        <v>265.3924131404652</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028583</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
@@ -5209,40 +5209,40 @@
         <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974662</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980059</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585742</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557898</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>1387.841167119724</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1187.921157035276</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>1187.921157035276</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1187.921157035276</v>
+        <v>1310.273093374436</v>
       </c>
       <c r="V13" t="n">
-        <v>1187.921157035276</v>
+        <v>1310.273093374436</v>
       </c>
       <c r="W13" t="n">
-        <v>1187.921157035276</v>
+        <v>1310.273093374436</v>
       </c>
       <c r="X13" t="n">
-        <v>1187.921157035276</v>
+        <v>1082.283542476419</v>
       </c>
       <c r="Y13" t="n">
-        <v>1060.896741391251</v>
+        <v>861.4909633328887</v>
       </c>
     </row>
     <row r="14">
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155894</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823783</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C15" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D15" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E15" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G15" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>2334.498159098441</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>2745.388427942954</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L15" t="n">
-        <v>3359.285497699842</v>
+        <v>534.5429807341673</v>
       </c>
       <c r="M15" t="n">
-        <v>3666.605630979804</v>
+        <v>1039.489963795367</v>
       </c>
       <c r="N15" t="n">
-        <v>3996.468258643837</v>
+        <v>1843.901542059518</v>
       </c>
       <c r="O15" t="n">
-        <v>4253.421048821322</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P15" t="n">
-        <v>4773.721670557069</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S15" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T15" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U15" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V15" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W15" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X15" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y15" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="16">
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>991.0842369787848</v>
+        <v>523.5986531011361</v>
       </c>
       <c r="C16" t="n">
-        <v>822.1480540508779</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="D16" t="n">
-        <v>822.1480540508779</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="E16" t="n">
-        <v>674.2349604684848</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>354.6624701732292</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>186.4871484930498</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V16" t="n">
-        <v>1498.916270557902</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="W16" t="n">
-        <v>1498.916270557902</v>
+        <v>933.2366688293931</v>
       </c>
       <c r="X16" t="n">
-        <v>1393.525280952555</v>
+        <v>705.2471179313758</v>
       </c>
       <c r="Y16" t="n">
-        <v>1172.732701809025</v>
+        <v>705.2471179313758</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,34 +5498,34 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
         <v>3889.732883643323</v>
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3224.712326690733</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C18" t="n">
-        <v>3050.259297409606</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D18" t="n">
-        <v>2901.324887748355</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E18" t="n">
-        <v>2742.087432742899</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F18" t="n">
-        <v>2595.552874769784</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G18" t="n">
-        <v>2458.626196373969</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H18" t="n">
-        <v>2362.681322805657</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>2334.498159098441</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>2500.819361250803</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>2911.709630095316</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>3141.672735963665</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M18" t="n">
-        <v>3462.008055493367</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N18" t="n">
-        <v>4191.390811711633</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O18" t="n">
-        <v>4860.854573014292</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
-        <v>4860.854573014292</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S18" t="n">
-        <v>4720.948468098067</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T18" t="n">
-        <v>4526.033852021845</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U18" t="n">
-        <v>4297.928927641232</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V18" t="n">
-        <v>4062.776819409489</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W18" t="n">
-        <v>3808.539462681288</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X18" t="n">
-        <v>3600.687962475755</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y18" t="n">
-        <v>3392.927663710801</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="19">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>778.2831413070231</v>
+        <v>879.2482765610114</v>
       </c>
       <c r="C19" t="n">
-        <v>778.2831413070231</v>
+        <v>710.3120936331045</v>
       </c>
       <c r="D19" t="n">
-        <v>628.1665018946874</v>
+        <v>560.1954542207687</v>
       </c>
       <c r="E19" t="n">
-        <v>628.1665018946874</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F19" t="n">
-        <v>481.276554396777</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G19" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="W19" t="n">
-        <v>1187.92115703528</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="X19" t="n">
-        <v>959.9316061372629</v>
+        <v>1281.689320534781</v>
       </c>
       <c r="Y19" t="n">
-        <v>959.9316061372629</v>
+        <v>1060.896741391251</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805475</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822467</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,7 +5826,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126482</v>
@@ -5835,19 +5835,19 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>674.4285624571609</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M21" t="n">
-        <v>994.7638819868627</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N21" t="n">
-        <v>1559.410052240715</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O21" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>395.2468244550147</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>245.130185042679</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T22" t="n">
-        <v>1280.361907532689</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>1280.361907532689</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V22" t="n">
-        <v>1025.677419326802</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W22" t="n">
-        <v>1025.677419326802</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>797.6878684287846</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>576.8952892852544</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822462</v>
@@ -5990,16 +5990,16 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
@@ -6020,19 +6020,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6066,22 +6066,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>164.8761557877077</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>575.7664246322204</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1189.663494389109</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1509.998813918811</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N24" t="n">
-        <v>1854.519469556429</v>
+        <v>1954.109744073479</v>
       </c>
       <c r="O24" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028584</v>
@@ -6148,22 +6148,22 @@
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M25" t="n">
-        <v>1048.866260860496</v>
+        <v>1048.866260860497</v>
       </c>
       <c r="N25" t="n">
         <v>1386.860941116388</v>
       </c>
       <c r="O25" t="n">
-        <v>1688.186490350129</v>
+        <v>1688.18649035013</v>
       </c>
       <c r="P25" t="n">
-        <v>1932.236826184156</v>
+        <v>1932.236826184157</v>
       </c>
       <c r="Q25" t="n">
         <v>2038.520840384657</v>
@@ -6187,10 +6187,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155887</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822462</v>
@@ -6227,10 +6227,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6312,13 +6312,13 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1608.660951743751</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N27" t="n">
-        <v>1953.181607381369</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229672</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G28" t="n">
         <v>221.5295092103129</v>
@@ -6388,7 +6388,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L28" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M28" t="n">
         <v>1048.866260860496</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G29" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
         <v>179.8222783822462</v>
@@ -6464,7 +6464,7 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L30" t="n">
-        <v>1239.074732711013</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M30" t="n">
-        <v>1559.410052240715</v>
+        <v>744.3684618792639</v>
       </c>
       <c r="N30" t="n">
-        <v>1559.410052240715</v>
+        <v>1548.780040143415</v>
       </c>
       <c r="O30" t="n">
-        <v>1808.163466324677</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P30" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F31" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
@@ -6664,7 +6664,7 @@
         <v>924.2611010045205</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
         <v>1701.093169003441</v>
@@ -6689,7 +6689,7 @@
         <v>904.3190116155895</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822462</v>
@@ -6698,19 +6698,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
@@ -6731,19 +6731,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6777,28 +6777,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="L33" t="n">
-        <v>1288.32563221405</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M33" t="n">
-        <v>1847.655958041207</v>
+        <v>417.5524109899877</v>
       </c>
       <c r="N33" t="n">
-        <v>2192.176613678825</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O33" t="n">
-        <v>2440.930027762787</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
-        <v>2623.573505376138</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q33" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R33" t="n">
         <v>2623.573505376138</v>
@@ -6847,7 +6847,7 @@
         <v>320.8847398504508</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103125</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,13 +6856,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
@@ -6941,13 +6941,13 @@
         <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643323</v>
@@ -6971,16 +6971,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7014,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>280.6570073165065</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>894.5540770733951</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1214.889396603097</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N36" t="n">
-        <v>1559.410052240715</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E37" t="n">
         <v>398.9545963083206</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G37" t="n">
         <v>221.5295092103129</v>
@@ -7099,7 +7099,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7135,10 +7135,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045208</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="38">
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506729</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083205</v>
@@ -7351,7 +7351,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R40" t="n">
         <v>1996.265827986523</v>
@@ -7363,19 +7363,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V40" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W40" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7491,19 +7491,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>381.3300194168667</v>
+        <v>575.7664246322204</v>
       </c>
       <c r="L42" t="n">
-        <v>381.3300194168667</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M42" t="n">
-        <v>1149.698165809328</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N42" t="n">
-        <v>1954.109744073479</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O42" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P42" t="n">
         <v>2623.573505376138</v>
@@ -7552,16 +7552,16 @@
         <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G43" t="n">
         <v>221.529509210313</v>
       </c>
       <c r="H43" t="n">
-        <v>139.9315917982974</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I43" t="n">
         <v>97.21709146028587</v>
@@ -7594,7 +7594,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S43" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T43" t="n">
         <v>1710.200584771663</v>
@@ -7649,10 +7649,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7728,16 +7728,16 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>327.180197328635</v>
+        <v>738.0704661731477</v>
       </c>
       <c r="M45" t="n">
-        <v>1095.548343721096</v>
+        <v>1058.405785702849</v>
       </c>
       <c r="N45" t="n">
-        <v>1440.068999358714</v>
+        <v>1402.926441340468</v>
       </c>
       <c r="O45" t="n">
         <v>1808.163466324677</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229669</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G46" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7807,10 +7807,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7828,25 +7828,25 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T46" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
         <v>772.2886129010315</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>346.2692436516226</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747122</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,7 +8775,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9003,28 +9003,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9258,7 +9258,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
@@ -9483,7 +9483,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
@@ -9495,13 +9495,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928324</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
@@ -9732,13 +9732,13 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9966,16 +9966,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10191,16 +10191,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10212,7 +10212,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298293</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10446,10 +10446,10 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>256.8229801907413</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11154,7 +11154,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711646</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>65.716419872982</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11376,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>193.2600966958906</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>261.194982469053</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>217.4093476920649</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22607,10 +22607,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22705,25 +22705,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>118.0260505972563</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>20.99218357687818</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,10 +22750,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -22762,13 +22762,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23428,10 +23428,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23461,16 +23461,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>99.48060698694565</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -23479,10 +23479,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>92.83048186451016</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>60.53647190509984</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>221.5475610583892</v>
@@ -23710,16 +23710,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>121.3725756797428</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>45.60777398805949</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,7 +23935,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23950,13 +23950,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>269.3891277973041</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24124,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24175,25 +24175,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T22" t="n">
-        <v>5.178741663427957</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>18391.92434782021</v>
+        <v>18391.92434782022</v>
       </c>
       <c r="C2" t="n">
         <v>20526.04424660707</v>
@@ -26320,40 +26320,40 @@
         <v>20526.04424660708</v>
       </c>
       <c r="E2" t="n">
+        <v>19551.45298688544</v>
+      </c>
+      <c r="F2" t="n">
         <v>19551.45298688543</v>
       </c>
-      <c r="F2" t="n">
-        <v>19551.45298688544</v>
-      </c>
       <c r="G2" t="n">
-        <v>19551.45298688544</v>
+        <v>19551.45298688543</v>
       </c>
       <c r="H2" t="n">
         <v>19551.45298688544</v>
       </c>
       <c r="I2" t="n">
-        <v>20526.04424660713</v>
+        <v>20526.04424660711</v>
       </c>
       <c r="J2" t="n">
+        <v>20526.04424660707</v>
+      </c>
+      <c r="K2" t="n">
         <v>20526.04424660712</v>
       </c>
-      <c r="K2" t="n">
-        <v>20526.04424660707</v>
-      </c>
       <c r="L2" t="n">
+        <v>20526.04424660711</v>
+      </c>
+      <c r="M2" t="n">
+        <v>20526.04424660712</v>
+      </c>
+      <c r="N2" t="n">
+        <v>20526.04424660711</v>
+      </c>
+      <c r="O2" t="n">
+        <v>20526.0442466071</v>
+      </c>
+      <c r="P2" t="n">
         <v>20526.04424660709</v>
-      </c>
-      <c r="M2" t="n">
-        <v>20526.04424660707</v>
-      </c>
-      <c r="N2" t="n">
-        <v>20526.04424660712</v>
-      </c>
-      <c r="O2" t="n">
-        <v>20526.04424660711</v>
-      </c>
-      <c r="P2" t="n">
-        <v>20526.0442466071</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>54505.51210371256</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,10 +26396,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.015233837</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371254</v>
+        <v>54505.51210371256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,40 +26415,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892138</v>
+        <v>90335.72423892135</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905759103</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758902</v>
       </c>
       <c r="I4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189632</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189635</v>
@@ -26457,7 +26457,7 @@
         <v>23206.58093189634</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-744770.7571690552</v>
+        <v>-744984.1691589337</v>
       </c>
       <c r="C6" t="n">
-        <v>-201392.1729974214</v>
+        <v>-201392.1729974215</v>
       </c>
       <c r="D6" t="n">
         <v>-201392.1729974214</v>
       </c>
       <c r="E6" t="n">
-        <v>-598383.7031293031</v>
+        <v>-598481.1622552754</v>
       </c>
       <c r="F6" t="n">
-        <v>-73223.66665240706</v>
+        <v>-73321.12577837922</v>
       </c>
       <c r="G6" t="n">
-        <v>-73223.66665240706</v>
+        <v>-73321.12577837922</v>
       </c>
       <c r="H6" t="n">
-        <v>-73223.66665240705</v>
+        <v>-73321.12577837924</v>
       </c>
       <c r="I6" t="n">
         <v>-154901.1546090272</v>
@@ -26546,7 +26546,7 @@
         <v>-276818.8616979076</v>
       </c>
       <c r="K6" t="n">
-        <v>-100395.6425053147</v>
+        <v>-100395.6425053146</v>
       </c>
       <c r="L6" t="n">
         <v>-100395.6425053146</v>
@@ -26561,7 +26561,7 @@
         <v>-100395.6425053146</v>
       </c>
       <c r="P6" t="n">
-        <v>-100395.6425053146</v>
+        <v>-100395.6425053147</v>
       </c>
     </row>
   </sheetData>
@@ -26704,19 +26704,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
         <v>68.13189012964067</v>
@@ -26725,7 +26725,7 @@
         <v>68.13189012964064</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="3">
@@ -26738,22 +26738,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
+        <v>377.7436642170867</v>
+      </c>
+      <c r="D3" t="n">
         <v>377.7436642170866</v>
       </c>
-      <c r="D3" t="n">
-        <v>377.7436642170867</v>
-      </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541003</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964071</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499017</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990173</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,13 +27391,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>366.6380752463413</v>
+        <v>196.3748223287301</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,13 +27579,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>225.0351054580843</v>
@@ -27594,13 +27594,13 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27619,16 +27619,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>63.51270440188387</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27661,10 +27661,10 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>91.34823014503007</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27676,13 +27676,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>108.9729822755747</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>56.8258083455521</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27853,16 +27853,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>159.0539206656856</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>4.059301860402286</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28014,7 +28014,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>96.92615468724711</v>
       </c>
       <c r="W10" t="n">
-        <v>127.6950562430166</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28138,7 +28138,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28281,7 +28281,7 @@
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>-2.053100445934254e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -28801,7 +28801,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="32">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
   </sheetData>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,19 +31355,19 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>11.76595806653259</v>
+        <v>87.78329382423925</v>
       </c>
       <c r="L6" t="n">
         <v>176.4169820478007</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,22 +31695,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,37 +31838,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K12" t="n">
-        <v>37.16757173359423</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>241.4090972701575</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,16 +31987,16 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
         <v>424.6341946041488</v>
@@ -32005,7 +32005,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
         <v>595.6470695927186</v>
@@ -32014,7 +32014,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
         <v>360.4902833647496</v>
@@ -32023,7 +32023,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32066,7 +32066,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
         <v>17.25001940386726</v>
@@ -32075,7 +32075,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
@@ -32084,13 +32084,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>186.4764278095943</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>8.282198074265409</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
@@ -32102,10 +32102,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32166,7 +32166,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
         <v>211.6522236065632</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,25 +32312,25 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>288.153359660201</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>388.74959654611</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -32339,10 +32339,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,16 +32488,16 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S20" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,37 +32549,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N21" t="n">
-        <v>222.3490046628627</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>69.08908054587592</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32798,19 +32798,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>0.9375118102115607</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -32962,7 +32962,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -33032,13 +33032,13 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O27" t="n">
-        <v>241.4090972701572</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -33047,7 +33047,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33184,7 +33184,7 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
         <v>526.796267130444</v>
@@ -33260,19 +33260,19 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>338.063701399498</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>330.1172231204811</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33497,28 +33497,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>241.4090972701574</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>369.6935619162747</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
@@ -33734,31 +33734,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
-        <v>58.66904626099313</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677465</v>
@@ -33916,7 +33916,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
-        <v>209.6945076446473</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
         <v>76.0697047810465</v>
@@ -34150,7 +34150,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647499</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
@@ -34211,22 +34211,22 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>188.7581524866007</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -34448,19 +34448,19 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>120.5465180626268</v>
+        <v>158.0642534345932</v>
       </c>
       <c r="P45" t="n">
         <v>341.0678223458549</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,10 +35012,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35170,25 +35170,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K8" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,7 +35249,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35258,19 +35258,19 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
-        <v>410.0055067279164</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>163.7913697718138</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35577,16 +35577,16 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778055993</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
         <v>803.5809304081118</v>
@@ -35668,7 +35668,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490666</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>510.0474576375759</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>259.5482729065505</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35817,13 +35817,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>520.439325183786</v>
       </c>
       <c r="M18" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N18" t="n">
-        <v>736.7502588063302</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N21" t="n">
-        <v>570.349666923083</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O21" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>68.34248921961806</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36446,13 +36446,13 @@
         <v>323.5710298279816</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>348.9381740704318</v>
       </c>
       <c r="O24" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L25" t="n">
         <v>318.3460770095692</v>
@@ -36534,7 +36534,7 @@
         <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,16 +36680,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N27" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O27" t="n">
-        <v>492.6751721024423</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36768,7 +36768,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P28" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q28" t="n">
         <v>107.3575901015154</v>
@@ -36832,7 +36832,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>570.349666923083</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>323.5710298279816</v>
+        <v>653.6882529484627</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
@@ -36932,7 +36932,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594834</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>564.980127098139</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>717.6942241764949</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>185.2928442992127</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N36" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O36" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
         <v>318.3460770095692</v>
@@ -37479,7 +37479,7 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q37" t="n">
         <v>107.3575901015154</v>
@@ -37798,10 +37798,10 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502051</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>118.9815412163823</v>
+        <v>315.3819505248204</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415665</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178377</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349766</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N45" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O45" t="n">
-        <v>371.8125928949119</v>
+        <v>409.3303282668783</v>
       </c>
       <c r="P45" t="n">
         <v>525.5561835714618</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K46" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L46" t="n">
         <v>318.3460770095692</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
